--- a/contratos/contratos-7-2015.xlsx
+++ b/contratos/contratos-7-2015.xlsx
@@ -886,7 +886,7 @@
     <t>ELECTRONICA MEGATONE S.A.</t>
   </si>
   <si>
-    <t>ALBIZZATTI, PABLO MARTIN Y FULINI, SERGIO RUBEN</t>
+    <t>ALBIZZATTI. PABLO MARTIN Y FULINI. SERGIO RUBEN</t>
   </si>
   <si>
     <t>CONHOR S.R.L.</t>
@@ -919,7 +919,7 @@
     <t>REYMUNDO EDUARDO JORGE</t>
   </si>
   <si>
-    <t>SCHAB DARIO, PEROTTI XAVIER, BENINCA MATIAS S.H.</t>
+    <t>SCHAB DARIO. PEROTTI XAVIER. BENINCA MATIAS SH</t>
   </si>
   <si>
     <t>VALDUNCIEL RODOLFO RENE</t>
@@ -982,7 +982,7 @@
     <t>GALLICET OSCAR MARCELO</t>
   </si>
   <si>
-    <t>MARSICO GUILLERMO MIGUEL, MARSICO JUAN EDUARDO</t>
+    <t>MARSICO GUILLERMO MIGUEL. MARSICO JUAN EDUARDO</t>
   </si>
   <si>
     <t>RADIO MECANO S.A.</t>
@@ -1054,7 +1054,7 @@
     <t>FORCLAZ CECILIO ISMAEL. SUCESION</t>
   </si>
   <si>
-    <t>RICCOTTI, MARIANA EDITH</t>
+    <t>RICCOTTI. MARIANA EDITH</t>
   </si>
   <si>
     <t>VALORI GUILLERMO MIGUEL</t>
@@ -1525,7 +1525,7 @@
     <t>GENESIS</t>
   </si>
   <si>
-    <t>MERCANZINI, GASTON ARIEL</t>
+    <t>MERCANZINI. GASTON ARIEL</t>
   </si>
   <si>
     <t>MFZ</t>
@@ -1729,817 +1729,817 @@
     <t>24</t>
   </si>
   <si>
-    <t>20.240,00</t>
-  </si>
-  <si>
-    <t>22.440,00</t>
-  </si>
-  <si>
-    <t>6.450,00</t>
-  </si>
-  <si>
-    <t>27.110,00</t>
-  </si>
-  <si>
-    <t>119.480,00</t>
-  </si>
-  <si>
-    <t>15.840,00</t>
-  </si>
-  <si>
-    <t>15.400,00</t>
-  </si>
-  <si>
-    <t>208.900,00</t>
-  </si>
-  <si>
-    <t>177.000,00</t>
-  </si>
-  <si>
-    <t>1.390,00</t>
-  </si>
-  <si>
-    <t>699,00</t>
-  </si>
-  <si>
-    <t>1.325,60</t>
-  </si>
-  <si>
-    <t>1.030,00</t>
-  </si>
-  <si>
-    <t>431.393,98</t>
-  </si>
-  <si>
-    <t>187.200,00</t>
-  </si>
-  <si>
-    <t>522.502,20</t>
-  </si>
-  <si>
-    <t>243.410,00</t>
-  </si>
-  <si>
-    <t>5.132,50</t>
-  </si>
-  <si>
-    <t>302,50</t>
-  </si>
-  <si>
-    <t>1.660,80</t>
-  </si>
-  <si>
-    <t>3.180,00</t>
-  </si>
-  <si>
-    <t>210,00</t>
-  </si>
-  <si>
-    <t>481.339,24</t>
-  </si>
-  <si>
-    <t>52.850,00</t>
-  </si>
-  <si>
-    <t>507.001,66</t>
-  </si>
-  <si>
-    <t>25.493,00</t>
-  </si>
-  <si>
-    <t>7.950,00</t>
-  </si>
-  <si>
-    <t>2.087,75</t>
-  </si>
-  <si>
-    <t>15.809,70</t>
-  </si>
-  <si>
-    <t>24.120,00</t>
-  </si>
-  <si>
-    <t>2.072,80</t>
-  </si>
-  <si>
-    <t>39.981,24</t>
-  </si>
-  <si>
-    <t>1.472,00</t>
-  </si>
-  <si>
-    <t>7.696,51</t>
-  </si>
-  <si>
-    <t>1.080,00</t>
-  </si>
-  <si>
-    <t>5.250,00</t>
-  </si>
-  <si>
-    <t>7.980,00</t>
-  </si>
-  <si>
-    <t>6.890,00</t>
-  </si>
-  <si>
-    <t>190,00</t>
-  </si>
-  <si>
-    <t>71.400,00</t>
-  </si>
-  <si>
-    <t>478,47</t>
-  </si>
-  <si>
-    <t>38.837,39</t>
-  </si>
-  <si>
-    <t>369,00</t>
-  </si>
-  <si>
-    <t>11.710,54</t>
-  </si>
-  <si>
-    <t>1.042,64</t>
-  </si>
-  <si>
-    <t>1.029,00</t>
-  </si>
-  <si>
-    <t>679,65</t>
-  </si>
-  <si>
-    <t>39,00</t>
-  </si>
-  <si>
-    <t>598,80</t>
-  </si>
-  <si>
-    <t>411,14</t>
-  </si>
-  <si>
-    <t>5.910,39</t>
-  </si>
-  <si>
-    <t>12.830,98</t>
-  </si>
-  <si>
-    <t>399,00</t>
-  </si>
-  <si>
-    <t>140.485,54</t>
-  </si>
-  <si>
-    <t>820,00</t>
-  </si>
-  <si>
-    <t>660,70</t>
-  </si>
-  <si>
-    <t>135,00</t>
-  </si>
-  <si>
-    <t>1.143,90</t>
-  </si>
-  <si>
-    <t>12.013,00</t>
-  </si>
-  <si>
-    <t>2.999,00</t>
-  </si>
-  <si>
-    <t>5.158,50</t>
-  </si>
-  <si>
-    <t>3.162,19</t>
-  </si>
-  <si>
-    <t>23,00</t>
-  </si>
-  <si>
-    <t>31.762,50</t>
-  </si>
-  <si>
-    <t>54.200,00</t>
-  </si>
-  <si>
-    <t>49,26</t>
-  </si>
-  <si>
-    <t>3.288,55</t>
-  </si>
-  <si>
-    <t>220,00</t>
-  </si>
-  <si>
-    <t>274.020,08</t>
-  </si>
-  <si>
-    <t>13.210,60</t>
-  </si>
-  <si>
-    <t>1.180,00</t>
-  </si>
-  <si>
-    <t>1.384,40</t>
-  </si>
-  <si>
-    <t>275,00</t>
-  </si>
-  <si>
-    <t>29.707,06</t>
-  </si>
-  <si>
-    <t>6.958,87</t>
-  </si>
-  <si>
-    <t>1.363,92</t>
-  </si>
-  <si>
-    <t>3.645,00</t>
-  </si>
-  <si>
-    <t>1.580,28</t>
-  </si>
-  <si>
-    <t>9.877,00</t>
-  </si>
-  <si>
-    <t>13.095,00</t>
-  </si>
-  <si>
-    <t>12.600,00</t>
-  </si>
-  <si>
-    <t>274.150,00</t>
-  </si>
-  <si>
-    <t>220,40</t>
-  </si>
-  <si>
-    <t>3.228,00</t>
-  </si>
-  <si>
-    <t>34,14</t>
-  </si>
-  <si>
-    <t>308,00</t>
-  </si>
-  <si>
-    <t>799,00</t>
-  </si>
-  <si>
-    <t>89.200,71</t>
-  </si>
-  <si>
-    <t>899,50</t>
-  </si>
-  <si>
-    <t>1.400,00</t>
-  </si>
-  <si>
-    <t>11.400,00</t>
-  </si>
-  <si>
-    <t>24.320,00</t>
-  </si>
-  <si>
-    <t>3.484,00</t>
-  </si>
-  <si>
-    <t>17.110,00</t>
-  </si>
-  <si>
-    <t>48.730,00</t>
-  </si>
-  <si>
-    <t>21.957,00</t>
-  </si>
-  <si>
-    <t>1.980,00</t>
-  </si>
-  <si>
-    <t>127.944,00</t>
-  </si>
-  <si>
-    <t>2.870,00</t>
-  </si>
-  <si>
-    <t>549,00</t>
-  </si>
-  <si>
-    <t>4.350,00</t>
-  </si>
-  <si>
-    <t>1.093,00</t>
-  </si>
-  <si>
-    <t>91,09</t>
-  </si>
-  <si>
-    <t>392,00</t>
-  </si>
-  <si>
-    <t>20.928,00</t>
-  </si>
-  <si>
-    <t>1.345,00</t>
-  </si>
-  <si>
-    <t>80,00</t>
-  </si>
-  <si>
-    <t>87,30</t>
-  </si>
-  <si>
-    <t>9.393,00</t>
-  </si>
-  <si>
-    <t>9.750,00</t>
-  </si>
-  <si>
-    <t>79,60</t>
-  </si>
-  <si>
-    <t>436,00</t>
-  </si>
-  <si>
-    <t>547.661,16</t>
-  </si>
-  <si>
-    <t>371.897,61</t>
-  </si>
-  <si>
-    <t>28.925,37</t>
-  </si>
-  <si>
-    <t>96.744,17</t>
-  </si>
-  <si>
-    <t>1.500,00</t>
-  </si>
-  <si>
-    <t>6.700,00</t>
-  </si>
-  <si>
-    <t>16,64</t>
-  </si>
-  <si>
-    <t>13.570,00</t>
-  </si>
-  <si>
-    <t>231,36</t>
-  </si>
-  <si>
-    <t>14.907,58</t>
-  </si>
-  <si>
-    <t>5.463,20</t>
-  </si>
-  <si>
-    <t>256,93</t>
-  </si>
-  <si>
-    <t>3.389,00</t>
-  </si>
-  <si>
-    <t>300,00</t>
-  </si>
-  <si>
-    <t>10.544,00</t>
-  </si>
-  <si>
-    <t>3.600,00</t>
-  </si>
-  <si>
-    <t>14.962,29</t>
-  </si>
-  <si>
-    <t>59.937,00</t>
-  </si>
-  <si>
-    <t>1.920,00</t>
-  </si>
-  <si>
-    <t>19.773,30</t>
-  </si>
-  <si>
-    <t>1.514,25</t>
-  </si>
-  <si>
-    <t>400,00</t>
-  </si>
-  <si>
-    <t>10.760,20</t>
-  </si>
-  <si>
-    <t>200,00</t>
-  </si>
-  <si>
-    <t>4.810,00</t>
-  </si>
-  <si>
-    <t>6.022,00</t>
-  </si>
-  <si>
-    <t>3.200,00</t>
-  </si>
-  <si>
-    <t>20.471,44</t>
-  </si>
-  <si>
-    <t>88,00</t>
-  </si>
-  <si>
-    <t>7.541,50</t>
-  </si>
-  <si>
-    <t>24,90</t>
-  </si>
-  <si>
-    <t>5.199,00</t>
-  </si>
-  <si>
-    <t>242.500,00</t>
-  </si>
-  <si>
-    <t>98,70</t>
-  </si>
-  <si>
-    <t>9.200,00</t>
-  </si>
-  <si>
-    <t>60,00</t>
-  </si>
-  <si>
-    <t>9.000,00</t>
-  </si>
-  <si>
-    <t>150,00</t>
-  </si>
-  <si>
-    <t>1.020,00</t>
-  </si>
-  <si>
-    <t>780,00</t>
-  </si>
-  <si>
-    <t>4.000,00</t>
-  </si>
-  <si>
-    <t>2.700,00</t>
-  </si>
-  <si>
-    <t>295,16</t>
-  </si>
-  <si>
-    <t>3.350,00</t>
-  </si>
-  <si>
-    <t>8.300,00</t>
-  </si>
-  <si>
-    <t>11.880,00</t>
-  </si>
-  <si>
-    <t>280,00</t>
-  </si>
-  <si>
-    <t>7.870,56</t>
-  </si>
-  <si>
-    <t>3.257,00</t>
-  </si>
-  <si>
-    <t>1.709,60</t>
-  </si>
-  <si>
-    <t>40.667,00</t>
-  </si>
-  <si>
-    <t>25.760,00</t>
-  </si>
-  <si>
-    <t>2.000,00</t>
-  </si>
-  <si>
-    <t>18.000,00</t>
-  </si>
-  <si>
-    <t>1.200,00</t>
-  </si>
-  <si>
-    <t>8.000,00</t>
-  </si>
-  <si>
-    <t>1.440,00</t>
-  </si>
-  <si>
-    <t>2.285,00</t>
-  </si>
-  <si>
-    <t>46.750,00</t>
-  </si>
-  <si>
-    <t>2.800,00</t>
-  </si>
-  <si>
-    <t>215,86</t>
-  </si>
-  <si>
-    <t>1.257,40</t>
-  </si>
-  <si>
-    <t>407,30</t>
-  </si>
-  <si>
-    <t>4.287,98</t>
-  </si>
-  <si>
-    <t>4.742,00</t>
-  </si>
-  <si>
-    <t>585,00</t>
-  </si>
-  <si>
-    <t>3.073,00</t>
-  </si>
-  <si>
-    <t>3.448,50</t>
-  </si>
-  <si>
-    <t>13.673,68</t>
-  </si>
-  <si>
-    <t>877.400,00</t>
-  </si>
-  <si>
-    <t>53.698,98</t>
-  </si>
-  <si>
-    <t>4.600,00</t>
-  </si>
-  <si>
-    <t>1.800,00</t>
-  </si>
-  <si>
-    <t>1.600,00</t>
-  </si>
-  <si>
-    <t>1.657,50</t>
-  </si>
-  <si>
-    <t>800,00</t>
-  </si>
-  <si>
-    <t>1.000,00</t>
-  </si>
-  <si>
-    <t>6.000,00</t>
-  </si>
-  <si>
-    <t>1.900,00</t>
-  </si>
-  <si>
-    <t>5.260,00</t>
-  </si>
-  <si>
-    <t>3.000,00</t>
-  </si>
-  <si>
-    <t>2.880,00</t>
-  </si>
-  <si>
-    <t>600,00</t>
-  </si>
-  <si>
-    <t>20.512,00</t>
-  </si>
-  <si>
-    <t>2.600,00</t>
-  </si>
-  <si>
-    <t>1.035,00</t>
-  </si>
-  <si>
-    <t>3.850,00</t>
-  </si>
-  <si>
-    <t>910,00</t>
-  </si>
-  <si>
-    <t>24.800,00</t>
-  </si>
-  <si>
-    <t>4.800,00</t>
-  </si>
-  <si>
-    <t>620,00</t>
-  </si>
-  <si>
-    <t>1.452,00</t>
-  </si>
-  <si>
-    <t>3.840,00</t>
-  </si>
-  <si>
-    <t>24.770,00</t>
-  </si>
-  <si>
-    <t>1.540,00</t>
-  </si>
-  <si>
-    <t>8.500,00</t>
-  </si>
-  <si>
-    <t>563,80</t>
-  </si>
-  <si>
-    <t>9.855,00</t>
-  </si>
-  <si>
-    <t>20.586,00</t>
-  </si>
-  <si>
-    <t>1.258,00</t>
-  </si>
-  <si>
-    <t>2.290,00</t>
-  </si>
-  <si>
-    <t>1.564,00</t>
-  </si>
-  <si>
-    <t>16,13</t>
-  </si>
-  <si>
-    <t>2.950,00</t>
-  </si>
-  <si>
-    <t>6.148,49</t>
-  </si>
-  <si>
-    <t>1.590,00</t>
-  </si>
-  <si>
-    <t>811,47</t>
-  </si>
-  <si>
-    <t>700,00</t>
-  </si>
-  <si>
-    <t>664,32</t>
-  </si>
-  <si>
-    <t>8.220,00</t>
-  </si>
-  <si>
-    <t>8.307,07</t>
-  </si>
-  <si>
-    <t>3.181,26</t>
-  </si>
-  <si>
-    <t>1.300,00</t>
-  </si>
-  <si>
-    <t>2.380,00</t>
-  </si>
-  <si>
-    <t>2.346,00</t>
-  </si>
-  <si>
-    <t>345,00</t>
-  </si>
-  <si>
-    <t>401,10</t>
-  </si>
-  <si>
-    <t>1.950,00</t>
-  </si>
-  <si>
-    <t>5.876,71</t>
-  </si>
-  <si>
-    <t>5.133,30</t>
-  </si>
-  <si>
-    <t>33.600,00</t>
-  </si>
-  <si>
-    <t>177.150,00</t>
-  </si>
-  <si>
-    <t>2.864,82</t>
-  </si>
-  <si>
-    <t>85.750,00</t>
-  </si>
-  <si>
-    <t>843.410,42</t>
-  </si>
-  <si>
-    <t>268,14</t>
-  </si>
-  <si>
-    <t>1.560,00</t>
-  </si>
-  <si>
-    <t>360.370,00</t>
-  </si>
-  <si>
-    <t>450.492,00</t>
-  </si>
-  <si>
-    <t>118.000,00</t>
-  </si>
-  <si>
-    <t>370.000,00</t>
-  </si>
-  <si>
-    <t>846.858,00</t>
-  </si>
-  <si>
-    <t>231.276,00</t>
-  </si>
-  <si>
-    <t>32.500,00</t>
-  </si>
-  <si>
-    <t>72.500,00</t>
-  </si>
-  <si>
-    <t>286.737,50</t>
-  </si>
-  <si>
-    <t>502.342,80</t>
-  </si>
-  <si>
-    <t>496.200,00</t>
-  </si>
-  <si>
-    <t>39.000,00</t>
-  </si>
-  <si>
-    <t>44.500,00</t>
-  </si>
-  <si>
-    <t>302.700,00</t>
-  </si>
-  <si>
-    <t>92.780,00</t>
-  </si>
-  <si>
-    <t>200.000,00</t>
-  </si>
-  <si>
-    <t>520.000,00</t>
-  </si>
-  <si>
-    <t>1.160,88</t>
-  </si>
-  <si>
-    <t>4.919,70</t>
-  </si>
-  <si>
-    <t>85.690,00</t>
-  </si>
-  <si>
-    <t>23.000,00</t>
-  </si>
-  <si>
-    <t>900,00</t>
-  </si>
-  <si>
-    <t>24.000,00</t>
-  </si>
-  <si>
-    <t>38.000,00</t>
-  </si>
-  <si>
-    <t>480,00</t>
-  </si>
-  <si>
-    <t>23.600,00</t>
-  </si>
-  <si>
-    <t>44.450,00</t>
-  </si>
-  <si>
-    <t>811.623,00</t>
-  </si>
-  <si>
-    <t>209.900,00</t>
-  </si>
-  <si>
-    <t>218,00</t>
-  </si>
-  <si>
-    <t>933,70</t>
-  </si>
-  <si>
-    <t>27,90</t>
+    <t>20240.00</t>
+  </si>
+  <si>
+    <t>22440.00</t>
+  </si>
+  <si>
+    <t>6450.00</t>
+  </si>
+  <si>
+    <t>27110.00</t>
+  </si>
+  <si>
+    <t>119480.00</t>
+  </si>
+  <si>
+    <t>15840.00</t>
+  </si>
+  <si>
+    <t>15400.00</t>
+  </si>
+  <si>
+    <t>208900.00</t>
+  </si>
+  <si>
+    <t>177000.00</t>
+  </si>
+  <si>
+    <t>1390.00</t>
+  </si>
+  <si>
+    <t>699.00</t>
+  </si>
+  <si>
+    <t>1325.60</t>
+  </si>
+  <si>
+    <t>1030.00</t>
+  </si>
+  <si>
+    <t>431393.98</t>
+  </si>
+  <si>
+    <t>187200.00</t>
+  </si>
+  <si>
+    <t>522502.20</t>
+  </si>
+  <si>
+    <t>243410.00</t>
+  </si>
+  <si>
+    <t>5132.50</t>
+  </si>
+  <si>
+    <t>302.50</t>
+  </si>
+  <si>
+    <t>1660.80</t>
+  </si>
+  <si>
+    <t>3180.00</t>
+  </si>
+  <si>
+    <t>210.00</t>
+  </si>
+  <si>
+    <t>481339.24</t>
+  </si>
+  <si>
+    <t>52850.00</t>
+  </si>
+  <si>
+    <t>507001.66</t>
+  </si>
+  <si>
+    <t>25493.00</t>
+  </si>
+  <si>
+    <t>7950.00</t>
+  </si>
+  <si>
+    <t>2087.75</t>
+  </si>
+  <si>
+    <t>15809.70</t>
+  </si>
+  <si>
+    <t>24120.00</t>
+  </si>
+  <si>
+    <t>2072.80</t>
+  </si>
+  <si>
+    <t>39981.24</t>
+  </si>
+  <si>
+    <t>1472.00</t>
+  </si>
+  <si>
+    <t>7696.51</t>
+  </si>
+  <si>
+    <t>1080.00</t>
+  </si>
+  <si>
+    <t>5250.00</t>
+  </si>
+  <si>
+    <t>7980.00</t>
+  </si>
+  <si>
+    <t>6890.00</t>
+  </si>
+  <si>
+    <t>190.00</t>
+  </si>
+  <si>
+    <t>71400.00</t>
+  </si>
+  <si>
+    <t>478.47</t>
+  </si>
+  <si>
+    <t>38837.39</t>
+  </si>
+  <si>
+    <t>369.00</t>
+  </si>
+  <si>
+    <t>11710.54</t>
+  </si>
+  <si>
+    <t>1042.64</t>
+  </si>
+  <si>
+    <t>1029.00</t>
+  </si>
+  <si>
+    <t>679.65</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>598.80</t>
+  </si>
+  <si>
+    <t>411.14</t>
+  </si>
+  <si>
+    <t>5910.39</t>
+  </si>
+  <si>
+    <t>12830.98</t>
+  </si>
+  <si>
+    <t>399.00</t>
+  </si>
+  <si>
+    <t>140485.54</t>
+  </si>
+  <si>
+    <t>820.00</t>
+  </si>
+  <si>
+    <t>660.70</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>1143.90</t>
+  </si>
+  <si>
+    <t>12013.00</t>
+  </si>
+  <si>
+    <t>2999.00</t>
+  </si>
+  <si>
+    <t>5158.50</t>
+  </si>
+  <si>
+    <t>3162.19</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>31762.50</t>
+  </si>
+  <si>
+    <t>54200.00</t>
+  </si>
+  <si>
+    <t>49.26</t>
+  </si>
+  <si>
+    <t>3288.55</t>
+  </si>
+  <si>
+    <t>220.00</t>
+  </si>
+  <si>
+    <t>274020.08</t>
+  </si>
+  <si>
+    <t>13210.60</t>
+  </si>
+  <si>
+    <t>1180.00</t>
+  </si>
+  <si>
+    <t>1384.40</t>
+  </si>
+  <si>
+    <t>275.00</t>
+  </si>
+  <si>
+    <t>29707.06</t>
+  </si>
+  <si>
+    <t>6958.87</t>
+  </si>
+  <si>
+    <t>1363.92</t>
+  </si>
+  <si>
+    <t>3645.00</t>
+  </si>
+  <si>
+    <t>1580.28</t>
+  </si>
+  <si>
+    <t>9877.00</t>
+  </si>
+  <si>
+    <t>13095.00</t>
+  </si>
+  <si>
+    <t>12600.00</t>
+  </si>
+  <si>
+    <t>274150.00</t>
+  </si>
+  <si>
+    <t>220.40</t>
+  </si>
+  <si>
+    <t>3228.00</t>
+  </si>
+  <si>
+    <t>34.14</t>
+  </si>
+  <si>
+    <t>308.00</t>
+  </si>
+  <si>
+    <t>799.00</t>
+  </si>
+  <si>
+    <t>89200.71</t>
+  </si>
+  <si>
+    <t>899.50</t>
+  </si>
+  <si>
+    <t>1400.00</t>
+  </si>
+  <si>
+    <t>11400.00</t>
+  </si>
+  <si>
+    <t>24320.00</t>
+  </si>
+  <si>
+    <t>3484.00</t>
+  </si>
+  <si>
+    <t>17110.00</t>
+  </si>
+  <si>
+    <t>48730.00</t>
+  </si>
+  <si>
+    <t>21957.00</t>
+  </si>
+  <si>
+    <t>1980.00</t>
+  </si>
+  <si>
+    <t>127944.00</t>
+  </si>
+  <si>
+    <t>2870.00</t>
+  </si>
+  <si>
+    <t>549.00</t>
+  </si>
+  <si>
+    <t>4350.00</t>
+  </si>
+  <si>
+    <t>1093.00</t>
+  </si>
+  <si>
+    <t>91.09</t>
+  </si>
+  <si>
+    <t>392.00</t>
+  </si>
+  <si>
+    <t>20928.00</t>
+  </si>
+  <si>
+    <t>1345.00</t>
+  </si>
+  <si>
+    <t>80.00</t>
+  </si>
+  <si>
+    <t>87.30</t>
+  </si>
+  <si>
+    <t>9393.00</t>
+  </si>
+  <si>
+    <t>9750.00</t>
+  </si>
+  <si>
+    <t>79.60</t>
+  </si>
+  <si>
+    <t>436.00</t>
+  </si>
+  <si>
+    <t>547661.16</t>
+  </si>
+  <si>
+    <t>371897.61</t>
+  </si>
+  <si>
+    <t>28925.37</t>
+  </si>
+  <si>
+    <t>96744.17</t>
+  </si>
+  <si>
+    <t>1500.00</t>
+  </si>
+  <si>
+    <t>6700.00</t>
+  </si>
+  <si>
+    <t>16.64</t>
+  </si>
+  <si>
+    <t>13570.00</t>
+  </si>
+  <si>
+    <t>231.36</t>
+  </si>
+  <si>
+    <t>14907.58</t>
+  </si>
+  <si>
+    <t>5463.20</t>
+  </si>
+  <si>
+    <t>256.93</t>
+  </si>
+  <si>
+    <t>3389.00</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
+    <t>10544.00</t>
+  </si>
+  <si>
+    <t>3600.00</t>
+  </si>
+  <si>
+    <t>14962.29</t>
+  </si>
+  <si>
+    <t>59937.00</t>
+  </si>
+  <si>
+    <t>1920.00</t>
+  </si>
+  <si>
+    <t>19773.30</t>
+  </si>
+  <si>
+    <t>1514.25</t>
+  </si>
+  <si>
+    <t>400.00</t>
+  </si>
+  <si>
+    <t>10760.20</t>
+  </si>
+  <si>
+    <t>200.00</t>
+  </si>
+  <si>
+    <t>4810.00</t>
+  </si>
+  <si>
+    <t>6022.00</t>
+  </si>
+  <si>
+    <t>3200.00</t>
+  </si>
+  <si>
+    <t>20471.44</t>
+  </si>
+  <si>
+    <t>88.00</t>
+  </si>
+  <si>
+    <t>7541.50</t>
+  </si>
+  <si>
+    <t>24.90</t>
+  </si>
+  <si>
+    <t>5199.00</t>
+  </si>
+  <si>
+    <t>242500.00</t>
+  </si>
+  <si>
+    <t>98.70</t>
+  </si>
+  <si>
+    <t>9200.00</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>9000.00</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>1020.00</t>
+  </si>
+  <si>
+    <t>780.00</t>
+  </si>
+  <si>
+    <t>4000.00</t>
+  </si>
+  <si>
+    <t>2700.00</t>
+  </si>
+  <si>
+    <t>295.16</t>
+  </si>
+  <si>
+    <t>3350.00</t>
+  </si>
+  <si>
+    <t>8300.00</t>
+  </si>
+  <si>
+    <t>11880.00</t>
+  </si>
+  <si>
+    <t>280.00</t>
+  </si>
+  <si>
+    <t>7870.56</t>
+  </si>
+  <si>
+    <t>3257.00</t>
+  </si>
+  <si>
+    <t>1709.60</t>
+  </si>
+  <si>
+    <t>40667.00</t>
+  </si>
+  <si>
+    <t>25760.00</t>
+  </si>
+  <si>
+    <t>2000.00</t>
+  </si>
+  <si>
+    <t>18000.00</t>
+  </si>
+  <si>
+    <t>1200.00</t>
+  </si>
+  <si>
+    <t>8000.00</t>
+  </si>
+  <si>
+    <t>1440.00</t>
+  </si>
+  <si>
+    <t>2285.00</t>
+  </si>
+  <si>
+    <t>46750.00</t>
+  </si>
+  <si>
+    <t>2800.00</t>
+  </si>
+  <si>
+    <t>215.86</t>
+  </si>
+  <si>
+    <t>1257.40</t>
+  </si>
+  <si>
+    <t>407.30</t>
+  </si>
+  <si>
+    <t>4287.98</t>
+  </si>
+  <si>
+    <t>4742.00</t>
+  </si>
+  <si>
+    <t>585.00</t>
+  </si>
+  <si>
+    <t>3073.00</t>
+  </si>
+  <si>
+    <t>3448.50</t>
+  </si>
+  <si>
+    <t>13673.68</t>
+  </si>
+  <si>
+    <t>877400.00</t>
+  </si>
+  <si>
+    <t>53698.98</t>
+  </si>
+  <si>
+    <t>4600.00</t>
+  </si>
+  <si>
+    <t>1800.00</t>
+  </si>
+  <si>
+    <t>1600.00</t>
+  </si>
+  <si>
+    <t>1657.50</t>
+  </si>
+  <si>
+    <t>800.00</t>
+  </si>
+  <si>
+    <t>1000.00</t>
+  </si>
+  <si>
+    <t>6000.00</t>
+  </si>
+  <si>
+    <t>1900.00</t>
+  </si>
+  <si>
+    <t>5260.00</t>
+  </si>
+  <si>
+    <t>3000.00</t>
+  </si>
+  <si>
+    <t>2880.00</t>
+  </si>
+  <si>
+    <t>600.00</t>
+  </si>
+  <si>
+    <t>20512.00</t>
+  </si>
+  <si>
+    <t>2600.00</t>
+  </si>
+  <si>
+    <t>1035.00</t>
+  </si>
+  <si>
+    <t>3850.00</t>
+  </si>
+  <si>
+    <t>910.00</t>
+  </si>
+  <si>
+    <t>24800.00</t>
+  </si>
+  <si>
+    <t>4800.00</t>
+  </si>
+  <si>
+    <t>620.00</t>
+  </si>
+  <si>
+    <t>1452.00</t>
+  </si>
+  <si>
+    <t>3840.00</t>
+  </si>
+  <si>
+    <t>24770.00</t>
+  </si>
+  <si>
+    <t>1540.00</t>
+  </si>
+  <si>
+    <t>8500.00</t>
+  </si>
+  <si>
+    <t>563.80</t>
+  </si>
+  <si>
+    <t>9855.00</t>
+  </si>
+  <si>
+    <t>20586.00</t>
+  </si>
+  <si>
+    <t>1258.00</t>
+  </si>
+  <si>
+    <t>2290.00</t>
+  </si>
+  <si>
+    <t>1564.00</t>
+  </si>
+  <si>
+    <t>16.13</t>
+  </si>
+  <si>
+    <t>2950.00</t>
+  </si>
+  <si>
+    <t>6148.49</t>
+  </si>
+  <si>
+    <t>1590.00</t>
+  </si>
+  <si>
+    <t>811.47</t>
+  </si>
+  <si>
+    <t>700.00</t>
+  </si>
+  <si>
+    <t>664.32</t>
+  </si>
+  <si>
+    <t>8220.00</t>
+  </si>
+  <si>
+    <t>8307.07</t>
+  </si>
+  <si>
+    <t>3181.26</t>
+  </si>
+  <si>
+    <t>1300.00</t>
+  </si>
+  <si>
+    <t>2380.00</t>
+  </si>
+  <si>
+    <t>2346.00</t>
+  </si>
+  <si>
+    <t>345.00</t>
+  </si>
+  <si>
+    <t>401.10</t>
+  </si>
+  <si>
+    <t>1950.00</t>
+  </si>
+  <si>
+    <t>5876.71</t>
+  </si>
+  <si>
+    <t>5133.30</t>
+  </si>
+  <si>
+    <t>33600.00</t>
+  </si>
+  <si>
+    <t>177150.00</t>
+  </si>
+  <si>
+    <t>2864.82</t>
+  </si>
+  <si>
+    <t>85750.00</t>
+  </si>
+  <si>
+    <t>843410.42</t>
+  </si>
+  <si>
+    <t>268.14</t>
+  </si>
+  <si>
+    <t>1560.00</t>
+  </si>
+  <si>
+    <t>360370.00</t>
+  </si>
+  <si>
+    <t>450492.00</t>
+  </si>
+  <si>
+    <t>118000.00</t>
+  </si>
+  <si>
+    <t>370000.00</t>
+  </si>
+  <si>
+    <t>846858.00</t>
+  </si>
+  <si>
+    <t>231276.00</t>
+  </si>
+  <si>
+    <t>32500.00</t>
+  </si>
+  <si>
+    <t>72500.00</t>
+  </si>
+  <si>
+    <t>286737.50</t>
+  </si>
+  <si>
+    <t>502342.80</t>
+  </si>
+  <si>
+    <t>496200.00</t>
+  </si>
+  <si>
+    <t>39000.00</t>
+  </si>
+  <si>
+    <t>44500.00</t>
+  </si>
+  <si>
+    <t>302700.00</t>
+  </si>
+  <si>
+    <t>92780.00</t>
+  </si>
+  <si>
+    <t>200000.00</t>
+  </si>
+  <si>
+    <t>520000.00</t>
+  </si>
+  <si>
+    <t>1160.88</t>
+  </si>
+  <si>
+    <t>4919.70</t>
+  </si>
+  <si>
+    <t>85690.00</t>
+  </si>
+  <si>
+    <t>23000.00</t>
+  </si>
+  <si>
+    <t>900.00</t>
+  </si>
+  <si>
+    <t>24000.00</t>
+  </si>
+  <si>
+    <t>38000.00</t>
+  </si>
+  <si>
+    <t>480.00</t>
+  </si>
+  <si>
+    <t>23600.00</t>
+  </si>
+  <si>
+    <t>44450.00</t>
+  </si>
+  <si>
+    <t>811623.00</t>
+  </si>
+  <si>
+    <t>209900.00</t>
+  </si>
+  <si>
+    <t>218.00</t>
+  </si>
+  <si>
+    <t>933.70</t>
+  </si>
+  <si>
+    <t>27.90</t>
   </si>
 </sst>
 </file>
